--- a/src/test/java/vslot_input_main.xlsx
+++ b/src/test/java/vslot_input_main.xlsx
@@ -13,16 +13,17 @@
   </bookViews>
   <sheets>
     <sheet name="slot_input" sheetId="1" r:id="rId1"/>
-    <sheet name="slot_input_prototype" sheetId="6" r:id="rId2"/>
-    <sheet name="메모" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
+    <sheet name="slot_input_3v3" sheetId="7" r:id="rId2"/>
+    <sheet name="slot_input_prototype" sheetId="6" r:id="rId3"/>
+    <sheet name="메모" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="149">
   <si>
     <t>● 범례</t>
   </si>
@@ -1750,6 +1751,22 @@
   </si>
   <si>
     <t>3,3,3,3,3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2453,7 +2470,7 @@
   <dimension ref="A1:N155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4871,9 +4888,1988 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N146"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A62" sqref="A62"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="2" max="5" width="16.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="13" width="10.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A11" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A12" s="47"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A13" s="56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A14" s="53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A15" s="51">
+        <v>1</v>
+      </c>
+      <c r="B15" s="51">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A16" s="56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A19" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A20" s="53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A21" s="51">
+        <v>3</v>
+      </c>
+      <c r="C21" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A22" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C23" s="51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C24" s="47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
+      <c r="C25" s="47"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A28" s="47"/>
+      <c r="B28" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="8">
+        <v>3</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A30" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="15">
+        <v>100</v>
+      </c>
+      <c r="I30" s="10">
+        <v>1</v>
+      </c>
+      <c r="J30" s="23">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="15">
+        <v>5</v>
+      </c>
+      <c r="I31" s="10">
+        <v>2</v>
+      </c>
+      <c r="J31" s="23">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A32" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" s="15">
+        <v>10</v>
+      </c>
+      <c r="I32" s="10">
+        <v>3</v>
+      </c>
+      <c r="J32" s="23">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A33" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" s="15">
+        <v>20</v>
+      </c>
+      <c r="I33" s="10">
+        <v>4</v>
+      </c>
+      <c r="J33" s="23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A34" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="7">
+        <v>200</v>
+      </c>
+      <c r="I34" s="10">
+        <v>5</v>
+      </c>
+      <c r="J34" s="23">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A35" s="47"/>
+      <c r="B35" s="49" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="49"/>
+      <c r="D35" s="49"/>
+      <c r="I35" s="10">
+        <v>6</v>
+      </c>
+      <c r="J35" s="23">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="10">
+        <v>7</v>
+      </c>
+      <c r="J36" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="10">
+        <v>8</v>
+      </c>
+      <c r="J37" s="23">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="10">
+        <v>9</v>
+      </c>
+      <c r="J38" s="23">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I39" s="10">
+        <v>10</v>
+      </c>
+      <c r="J39" s="23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I40" s="10">
+        <v>11</v>
+      </c>
+      <c r="J40" s="23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I41" s="10">
+        <v>12</v>
+      </c>
+      <c r="J41" s="23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I42" s="10">
+        <v>13</v>
+      </c>
+      <c r="J42" s="23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I43" s="10">
+        <v>14</v>
+      </c>
+      <c r="J43" s="23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I44" s="10">
+        <v>15</v>
+      </c>
+      <c r="J44" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I45" s="10">
+        <v>16</v>
+      </c>
+      <c r="J45" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A46" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="10">
+        <v>17</v>
+      </c>
+      <c r="J46" s="23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A47" s="47"/>
+      <c r="B47" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="10">
+        <v>18</v>
+      </c>
+      <c r="J47" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="13.8">
+      <c r="A48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="13">
+        <v>1</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="13">
+        <v>8</v>
+      </c>
+      <c r="D50" s="13">
+        <v>10</v>
+      </c>
+      <c r="E50" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" s="13">
+        <v>12</v>
+      </c>
+      <c r="D51" s="13">
+        <v>10</v>
+      </c>
+      <c r="E51" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="13">
+        <v>10</v>
+      </c>
+      <c r="D52" s="13">
+        <v>10</v>
+      </c>
+      <c r="E52" s="13">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="13">
+        <v>1</v>
+      </c>
+      <c r="D53" s="13">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13">
+        <v>1</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8">
+        <f>SUM(C49:C53)</f>
+        <v>32</v>
+      </c>
+      <c r="D54" s="8">
+        <f>SUM(D49:D53)</f>
+        <v>32</v>
+      </c>
+      <c r="E54" s="8">
+        <f>SUM(E49:E53)</f>
+        <v>32</v>
+      </c>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A55" s="47"/>
+      <c r="B55" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A56" s="47"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="47"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A59" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A60" s="58" t="s">
+        <v>143</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A61" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A62" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A63" s="47"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A64" s="47"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A65" s="47"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" ht="15.75" customHeight="1">
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A67" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B68" s="15">
+        <f>PRODUCT(C54:G54)</f>
+        <v>32768</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" ht="15.75" customHeight="1">
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A71" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="14">
+        <f>PRODUCT(C49:G49)</f>
+        <v>1</v>
+      </c>
+      <c r="C71" s="15">
+        <f>PRODUCT(C49:F49)*SUM(G50:G53)-(PRODUCT(C49:F49)*G50)</f>
+        <v>0</v>
+      </c>
+      <c r="D71" s="15" t="e">
+        <f>PRODUCT(C49:E49)*SUM(#REF!)*SUM(G49:G53)+(PRODUCT(C49:E49)*F53*SUM(G49:G53))-(PRODUCT(C49:E49)*#REF!*SUM(G49,#REF!))-(PRODUCT(C49:E49)*#REF!*SUM(G49,#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E71" s="15">
+        <f>PRODUCT(C49:D49)*E53*(SUM(F49:F53))*(SUM(G49:G53))</f>
+        <v>0</v>
+      </c>
+      <c r="F71" s="15" t="e">
+        <f t="shared" ref="F71:F80" si="0">SUM(B71:E71)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="14">
+        <f t="array" ref="B72">(C50+C49)*(D50+D49)*(E50+E49)*(F50+F49)*(G50+G49)-PRODUCT(C49:G49)</f>
+        <v>-1</v>
+      </c>
+      <c r="C72" s="15">
+        <f>(C50+C49)*(D50+D49)*(E50+E49)*(F50+F49)*SUM(G51:G53)-(PRODUCT(C49:F49)*SUM(G51:G53))</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="15">
+        <f>PRODUCT(C50:E50)*SUM(F51:F53)*SUM(G49:G53)+C50*D50*E49*SUM(F51:F53)*SUM(G49:G53)+C50*D49*E49*SUM(F51:F53)*SUM(G49:G53)+C49*D50*E50*SUM(F51:F53)*SUM(G49:G53)+C49*D49*E50*SUM(F51:F53)*SUM(G49:G53)+C50*D49*E50*SUM(F51:F53)*SUM(G49:G53)+C49*D50*E49*SUM(F51:F53)*SUM(G49:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="15">
+        <f>(C49*D50*SUM(E51:E53)*SUM(F49:F53)*SUM(G49:G53))+(C50*D49*SUM(E51:E53)*SUM(F49:F53)*SUM(G49:G53))+(C50*D50*SUM(E51:E53)*SUM(F49:F53)*SUM(G49:G53))</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="15">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B73" s="14">
+        <f>(C51+C49)*(D51+D49)*(E51+E49)*(F51+F49)*(G51+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*G51)</f>
+        <v>-1</v>
+      </c>
+      <c r="C73" s="15">
+        <f>(C51+C49)*(D51+D49)*(E51+E49)*(F51+F49)*SUM(G50,G52:G53)-(PRODUCT(C49:F49))-(PRODUCT(C49:F49)*(SUM(G50,G52:G52)))</f>
+        <v>-1</v>
+      </c>
+      <c r="D73" s="15">
+        <f>PRODUCT(C51:E51)*SUM(F50,F52:F53)*SUM(G49:G53)+C51*D51*E49*SUM(F50,F52:F53)*SUM(G49:G53)+C51*D49*E49*SUM(F50,F52:F53)*SUM(G49:G53)+C49*D51*E51*SUM(F50,F52:F53)*SUM(G49:G53)+C49*D49*E51*SUM(F50,F52:F53)*SUM(G49:G53)+C51*D49*E51*SUM(F50,F52:F53)*SUM(G49:G53)+C49*D51*E49*SUM(F50,F52:F53)*SUM(G49:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="15">
+        <f>(C49*D51*SUM(E50,E52:E53)*SUM(F49:F53)*SUM(G49:G53))+(C51*D49*SUM(E50,E52:E53)*SUM(F49:F53)*SUM(G49:G53))+(C51*D51*SUM(E50,E52:E53)*SUM(F49:F53)*SUM(G49:G53))</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="15">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="H73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="14">
+        <f>(C52+C49)*(D52+D49)*(E52+E49)*(F52+F49)*(G52+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*G52)</f>
+        <v>-1</v>
+      </c>
+      <c r="C74" s="15" t="e">
+        <f>(C52+C49)*(D52+D49)*(E52+E49)*(F52+F49)*SUM(G50:G51,G53:G53)-PRODUCT(C49:F49)-(PRODUCT(C49:F49)*SUM(G50:G51,#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D74" s="15">
+        <f>PRODUCT(C52:E52)*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C52*D52*E49*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C52*D49*E49*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C49*D52*E52*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C49*D49*E52*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C52*D49*E52*SUM(F50:F51,F53:F53)*SUM(G49:G53)+C49*D52*E49*SUM(F50:F51,F53:F53)*SUM(G49:G53)</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="15">
+        <f>(C49*D52*SUM(E50:E51,E53:E53)*SUM(F49:F53)*SUM(G49:G53))+(C52*D49*SUM(E50:E51,E53:E53)*SUM(F49:F53)*SUM(G49:G53))+(C52*D52*SUM(E50:E51,E53:E53)*SUM(F49:F53)*SUM(G49:G53))</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C75" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53:G53)-(PRODUCT(C49:F49))-(PRODUCT(C49:F49)*(SUM(G50:G52,#REF!)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D75" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F75" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B76" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C76" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53:G53)-(PRODUCT(C49:F49)*SUM(G50:G52,G53:G53))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D76" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F76" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B77" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C77" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53:G53)-(PRODUCT(C49:F49)*SUM(G50:G52,G53:G53))-(PRODUCT(C49:E49)*#REF!*SUM(G50:G52,G53:G53))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D77" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F77" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B78" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:G49)*#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C78" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53:G53)-(PRODUCT(C49:F49)*SUM(G50:G52,G53:G53))-(PRODUCT(C49:E49)*#REF!*SUM(G50:G52,G53:G53))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D78" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F78" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:F49)*#REF!)-(PRODUCT(C49:E49)*#REF!*SUM(G49,#REF!))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C79" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53:G53)-(PRODUCT(C49:F49)*SUM(G50:G52,G53:G53))-PRODUCT(C49:E49*#REF!*SUM(G50:G52,G53:G53))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D79" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53:F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53:F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F79" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="14" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*(#REF!+G49)-PRODUCT(C49:G49)-(PRODUCT(C49:F49)*#REF!)-(PRODUCT(C49:E49)*(#REF!*SUM(G49,#REF!)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C80" s="15" t="e">
+        <f>(#REF!+C49)*(#REF!+D49)*(#REF!+E49)*(#REF!+F49)*SUM(G50:G52,G53)-(PRODUCT(C49:F49)*SUM(G50:G52,G53))-(PRODUCT(C49:E49)*#REF!*(SUM(G50:G52,G53)))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D80" s="15" t="e">
+        <f>PRODUCT(#REF!)*SUM(F50:F52,F53)*SUM(G49:G53)+#REF!*#REF!*E49*SUM(F50:F52,F53)*SUM(G49:G53)+#REF!*D49*E49*SUM(F50:F52,F53)*SUM(G49:G53)+C49*#REF!*#REF!*SUM(F50:F52,F53)*SUM(G49:G53)+C49*D49*#REF!*SUM(F50:F52,F53)*SUM(G49:G53)+#REF!*D49*#REF!*SUM(F50:F52,F53)*SUM(G49:G53)+C49*#REF!*E49*SUM(F50:F52,F53)*SUM(G49:G53)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F80" s="15" t="e">
+        <f t="shared" si="0"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" s="17" t="e">
+        <f t="shared" ref="B81:F81" si="1">SUM(B71:B80)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C81" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D81" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E81" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="17" t="e">
+        <f t="shared" si="1"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A85" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B87" s="27">
+        <f>B71/B68</f>
+        <v>3.0517578125E-5</v>
+      </c>
+      <c r="C87" s="27">
+        <f>C71/B68</f>
+        <v>0</v>
+      </c>
+      <c r="D87" s="27" t="e">
+        <f>D71/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E87" s="27">
+        <f>E71/B68</f>
+        <v>0</v>
+      </c>
+      <c r="F87" s="27" t="e">
+        <f t="shared" ref="F87:F96" si="2">SUM(B87:E87)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A88" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="27">
+        <f>B72/B68</f>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="C88" s="27">
+        <f>C72/B68</f>
+        <v>0</v>
+      </c>
+      <c r="D88" s="27">
+        <f>D72/B68</f>
+        <v>0</v>
+      </c>
+      <c r="E88" s="27">
+        <f>E72/B68</f>
+        <v>0</v>
+      </c>
+      <c r="F88" s="27">
+        <f t="shared" si="2"/>
+        <v>-3.0517578125E-5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B89" s="27">
+        <f>B73/B68</f>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="C89" s="27">
+        <f>C73/B68</f>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="D89" s="27">
+        <f>D73/B68</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="27">
+        <f>E73/B68</f>
+        <v>0</v>
+      </c>
+      <c r="F89" s="27">
+        <f t="shared" si="2"/>
+        <v>-6.103515625E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="27">
+        <f>B74/B68</f>
+        <v>-3.0517578125E-5</v>
+      </c>
+      <c r="C90" s="27" t="e">
+        <f>C74/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D90" s="27">
+        <f>D74/B68</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="27">
+        <f>E74/B68</f>
+        <v>0</v>
+      </c>
+      <c r="F90" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B91" s="27" t="e">
+        <f>B75/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C91" s="27" t="e">
+        <f>C75/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D91" s="27" t="e">
+        <f>D75/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E91" s="19">
+        <v>0</v>
+      </c>
+      <c r="F91" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="27" t="e">
+        <f>B76/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C92" s="27" t="e">
+        <f>C76/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D92" s="27" t="e">
+        <f>D76/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E92" s="19">
+        <v>0</v>
+      </c>
+      <c r="F92" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B93" s="27" t="e">
+        <f>B77/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C93" s="27" t="e">
+        <f>C77/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D93" s="27" t="e">
+        <f>D77/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E93" s="19">
+        <v>0</v>
+      </c>
+      <c r="F93" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B94" s="27" t="e">
+        <f>B78/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C94" s="27" t="e">
+        <f>C78/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D94" s="27" t="e">
+        <f>D78/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E94" s="19">
+        <v>0</v>
+      </c>
+      <c r="F94" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A95" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B95" s="27" t="e">
+        <f>B79/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C95" s="27" t="e">
+        <f>C79/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D95" s="27" t="e">
+        <f>D79/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E95" s="19">
+        <v>0</v>
+      </c>
+      <c r="F95" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" s="27" t="e">
+        <f>B80/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C96" s="27" t="e">
+        <f>C80/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D96" s="27" t="e">
+        <f>D80/B68</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E96" s="19">
+        <v>0</v>
+      </c>
+      <c r="F96" s="27" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G96" s="20"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="21" t="e">
+        <f t="shared" ref="B97:F97" si="3">SUM(B87:B96)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C97" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D97" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E97" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="21" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G97" s="22" t="e">
+        <f>F97</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="99" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="100" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A100" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A102" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" s="27">
+        <f t="shared" ref="B102:E105" si="4">B87*D30</f>
+        <v>3.0517578125E-3</v>
+      </c>
+      <c r="C102" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="27" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E102" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="27" t="e">
+        <f t="shared" ref="F102:F111" si="5">SUM(B102:E102)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103" s="27">
+        <f t="shared" si="4"/>
+        <v>-1.52587890625E-4</v>
+      </c>
+      <c r="C103" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="27">
+        <f t="shared" si="5"/>
+        <v>-1.52587890625E-4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B104" s="27">
+        <f t="shared" si="4"/>
+        <v>-3.0517578125E-4</v>
+      </c>
+      <c r="C104" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="27">
+        <f t="shared" si="5"/>
+        <v>-3.0517578125E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="27">
+        <f t="shared" si="4"/>
+        <v>-6.103515625E-4</v>
+      </c>
+      <c r="C105" s="27" t="e">
+        <f t="shared" si="4"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D105" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A106" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B106" s="27" t="e">
+        <f>B91*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C106" s="27" t="e">
+        <f>C91*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D106" s="27" t="e">
+        <f>D91*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E106" s="19" t="e">
+        <f>E91*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F106" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A107" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="27" t="e">
+        <f>B92*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C107" s="27" t="e">
+        <f>C92*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D107" s="27" t="e">
+        <f>D92*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E107" s="19" t="e">
+        <f>E92*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F107" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="27" t="e">
+        <f>B93*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C108" s="27" t="e">
+        <f>C93*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D108" s="27" t="e">
+        <f>D93*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E108" s="19" t="e">
+        <f>E93*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F108" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="27" t="e">
+        <f>B94*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C109" s="27" t="e">
+        <f>C94*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D109" s="27" t="e">
+        <f>D94*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E109" s="19" t="e">
+        <f>E94*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F109" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B110" s="27" t="e">
+        <f>B95*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C110" s="27" t="e">
+        <f>C95*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D110" s="27" t="e">
+        <f>D95*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E110" s="19" t="e">
+        <f>E95*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F110" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B111" s="27" t="e">
+        <f>B96*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C111" s="27" t="e">
+        <f>C96*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D111" s="27" t="e">
+        <f>D96*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E111" s="19" t="e">
+        <f>E96*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F111" s="27" t="e">
+        <f t="shared" si="5"/>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A112" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B112" s="21" t="e">
+        <f t="shared" ref="B112:F112" si="6">SUM(B102:B111)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C112" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="D112" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="E112" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="F112" s="21" t="e">
+        <f t="shared" si="6"/>
+        <v>#REF!</v>
+      </c>
+      <c r="G112" s="22" t="e">
+        <f>F112</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="114" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="115" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A115" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A116" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A117" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B117" s="7">
+        <f t="shared" ref="B117:F118" si="7">C53</f>
+        <v>1</v>
+      </c>
+      <c r="C117" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="D117" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E117" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A118" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B118" s="7">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="C118" s="7">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="D118" s="7">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="E118" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F118" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B119" s="7">
+        <f t="shared" ref="B119:F119" si="8">3*B117/B118</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="C119" s="7">
+        <f t="shared" si="8"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="D119" s="7">
+        <f t="shared" si="8"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="E119" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F119" s="7" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A121" s="1"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A122" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A124" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B124" s="23">
+        <v>100</v>
+      </c>
+      <c r="C124" s="23">
+        <v>25</v>
+      </c>
+      <c r="D124" s="23">
+        <v>5</v>
+      </c>
+      <c r="E124" s="15"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A125" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B125" s="24">
+        <v>486</v>
+      </c>
+      <c r="C125" s="24">
+        <v>20898</v>
+      </c>
+      <c r="D125" s="24">
+        <v>353916</v>
+      </c>
+      <c r="E125" s="15">
+        <f>B68</f>
+        <v>32768</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B126" s="26">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C126" s="26">
+        <v>6.2299999999999996E-4</v>
+      </c>
+      <c r="D126" s="26">
+        <v>1.0548E-2</v>
+      </c>
+      <c r="E126" s="27">
+        <f t="shared" ref="E126:E127" si="9">SUM(B126:D126)</f>
+        <v>1.1185E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A127" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="7">
+        <f t="shared" ref="B127:D127" si="10">B124*B126</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="C127" s="7">
+        <f t="shared" si="10"/>
+        <v>1.5574999999999999E-2</v>
+      </c>
+      <c r="D127" s="7">
+        <f t="shared" si="10"/>
+        <v>5.2740000000000002E-2</v>
+      </c>
+      <c r="E127" s="27">
+        <f t="shared" si="9"/>
+        <v>6.9714999999999999E-2</v>
+      </c>
+      <c r="F127" s="22">
+        <f>E127</f>
+        <v>6.9714999999999999E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15.75" customHeight="1"/>
+    <row r="129" spans="1:10" ht="15.75" customHeight="1">
+      <c r="I129" s="25" t="e">
+        <f>PRODUCT(B119:E119)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J129" s="25">
+        <f>PRODUCT(B119:D119)</f>
+        <v>8.23974609375E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A130" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A131" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H131" s="25" t="e">
+        <f>PRODUCT(B119:F119)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A132" s="27">
+        <f>E126</f>
+        <v>1.1185E-2</v>
+      </c>
+      <c r="B132" s="13">
+        <v>10</v>
+      </c>
+      <c r="C132" s="27" t="e">
+        <f>F112</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D132" s="7" t="e">
+        <f>3*(C132+E127)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E132" s="7">
+        <f>B132/(1-B132*A132)</f>
+        <v>11.259359342453415</v>
+      </c>
+      <c r="F132" s="7" t="e">
+        <f>E132*D132</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G132" s="7" t="e">
+        <f>A132*F132</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A133" s="1"/>
+    </row>
+    <row r="134" spans="1:10" ht="15.6">
+      <c r="A134" s="1"/>
+    </row>
+    <row r="135" spans="1:10" ht="15.6">
+      <c r="A135" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A136" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A137" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="28" t="e">
+        <f>G112</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B138" s="28">
+        <f>F127</f>
+        <v>6.9714999999999999E-2</v>
+      </c>
+      <c r="H138" s="22" t="e">
+        <f>G132</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="28" t="e">
+        <f>H138</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A140" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="28" t="e">
+        <f>SUM(B137:B139)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="142" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="143" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="144" spans="1:10" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5426,7 +7422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -5474,7 +7470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L32"/>
   <sheetViews>
